--- a/Project_Management.xlsx
+++ b/Project_Management.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishabh\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A83ECF-2B31-44D8-9330-455A522184AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4C0900-4EB9-47D5-9276-B546A3CCB119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{69D579CA-067D-48B6-AA56-900A74DE02A3}"/>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7B9AE7AE-C387-4D4E-8E49-74B9935B7515}"/>
   </bookViews>
   <sheets>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="47">
   <si>
     <t>Project</t>
   </si>
@@ -213,6 +212,9 @@
   <si>
     <t>Scroll Bar</t>
   </si>
+  <si>
+    <t>Project Management Dashboard</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +224,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0,,\M;\-0.0,,\M"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +359,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +554,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -700,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -724,6 +746,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="11"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -770,7 +801,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -781,6 +812,23 @@
         <top style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -806,7 +854,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -824,153 +872,6 @@
       <fill>
         <patternFill patternType="lightUp"/>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF66CC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF66CC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF66CC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF66CC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1200,8 +1101,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2758063398053636E-3"/>
-          <c:y val="7.3472428088813997E-3"/>
+          <c:x val="7.2757907153172818E-3"/>
+          <c:y val="2.4178841790538391E-2"/>
           <c:w val="0.98177205498461495"/>
           <c:h val="0.33508267768189304"/>
         </c:manualLayout>
@@ -1373,8 +1274,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.6714620292267854E-3"/>
-          <c:y val="0.5153032650161069"/>
+          <c:x val="5.6713773676039941E-3"/>
+          <c:y val="0.62565552809196034"/>
           <c:w val="0.91379842282583212"/>
           <c:h val="0.33980037036819988"/>
         </c:manualLayout>
@@ -1782,7 +1683,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.34515008114857415"/>
+          <c:y val="0.44593555873117297"/>
           <c:w val="0.73459448737211952"/>
           <c:h val="0.17978979260618061"/>
         </c:manualLayout>
@@ -1947,10 +1848,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28842365140106158"/>
-          <c:y val="0.45213263805321569"/>
-          <c:w val="0.5272373066776449"/>
-          <c:h val="0.47343766824767902"/>
+          <c:x val="0.30629130570884905"/>
+          <c:y val="0.46882983017332397"/>
+          <c:w val="0.54235437704220346"/>
+          <c:h val="0.50683211521445592"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1962,6 +1863,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="1"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2102,7 +2004,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="l">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2143,8 +2045,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9508801993721266E-3"/>
-          <c:y val="5.2770879388188217E-2"/>
+          <c:x val="1.950839287845131E-3"/>
+          <c:y val="0.10808830065816305"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2159,7 +2061,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="l">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3011,10 +2913,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.1157407407407406E-2"/>
-          <c:y val="0.32277743454664509"/>
-          <c:w val="0.87064814814814817"/>
-          <c:h val="0.67722256545335491"/>
+          <c:x val="4.0819469273916309E-3"/>
+          <c:y val="0.51817385303457597"/>
+          <c:w val="0.9772398433927818"/>
+          <c:h val="0.48182614696542408"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5534,176 +5436,26 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="Working!$H$10" horiz="1" max="30" page="7" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="Working!$H$10" horiz="1" max="30" page="7" val="9"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>62022</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BBB69F-1568-695C-E3FE-DE98B8965DEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="25170190" cy="594212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:noFill/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>664535</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>17721</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51C084D-9E7D-AD29-A5F6-C063068E4734}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="88604"/>
-          <a:ext cx="3234070" cy="469605"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1800"/>
-            <a:t>Project </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Management</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1800"/>
-            <a:t> Dashboard</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>17720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>124047</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>303906</xdr:colOff>
+      <xdr:colOff>481333</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>51307</xdr:rowOff>
+      <xdr:rowOff>178162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Project">
@@ -5726,7 +5478,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5736,8 +5488,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17720" y="664535"/>
-              <a:ext cx="3600000" cy="680400"/>
+              <a:off x="0" y="706244"/>
+              <a:ext cx="3603674" cy="679967"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5770,18 +5522,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>354417</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>124047</xdr:rowOff>
+      <xdr:colOff>493807</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>401371</xdr:colOff>
+      <xdr:colOff>540761</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>51307</xdr:rowOff>
+      <xdr:rowOff>178162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Manager">
@@ -5804,7 +5556,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5814,8 +5566,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3668231" y="664535"/>
-              <a:ext cx="3600000" cy="680400"/>
+              <a:off x="3616148" y="706244"/>
+              <a:ext cx="3596759" cy="679967"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5848,13 +5600,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>389473</xdr:colOff>
+      <xdr:colOff>389472</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257370</xdr:colOff>
+      <xdr:colOff>315950</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>115186</xdr:rowOff>
     </xdr:to>
@@ -5888,13 +5640,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>401152</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>484925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>168349</xdr:rowOff>
+      <xdr:rowOff>102221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5932,7 +5684,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>416458</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>44303</xdr:rowOff>
+      <xdr:rowOff>139391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5964,13 +5716,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>437788</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>194930</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>111561</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>79744</xdr:rowOff>
+      <xdr:rowOff>46465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6002,15 +5754,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>388620</xdr:colOff>
+          <xdr:colOff>473928</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>151471</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>586740</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:colOff>696952</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>463891</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6184,12 +5936,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.40624</cdr:x>
-      <cdr:y>0.57962</cdr:y>
+      <cdr:x>0.42595</cdr:x>
+      <cdr:y>0.62125</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76249</cdr:x>
-      <cdr:y>0.77707</cdr:y>
+      <cdr:x>0.75595</cdr:x>
+      <cdr:y>0.84728</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="Working!$K$6">
       <cdr:nvSpPr>
@@ -6204,8 +5956,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="575914" y="806302"/>
-          <a:ext cx="505047" cy="274674"/>
+          <a:off x="605522" y="945051"/>
+          <a:ext cx="469112" cy="343830"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7550,31 +7302,31 @@
     <dataField name="Actual " fld="9" baseField="7" baseItem="7" numFmtId="3"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="23">
+    <format dxfId="14">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="13">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="12">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="11">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="10">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="9">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="7">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7653,17 +7405,17 @@
     <tableColumn id="1" xr3:uid="{48AE544F-C45E-4175-A7E3-AF5E712375B0}" name="Project"/>
     <tableColumn id="2" xr3:uid="{E26F8B6D-4FF8-4C8F-8F2A-027763A9DEED}" name="Task"/>
     <tableColumn id="3" xr3:uid="{9BF736AF-5B90-4BB6-9063-F7E6563E3133}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{B0310970-D882-4826-8B08-7DAA89332DF6}" name="Start Date" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{B0310970-D882-4826-8B08-7DAA89332DF6}" name="Start Date" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{6D21052A-DB60-492E-82F4-607AC2FD8CEC}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{08241312-22D9-4BB9-B978-C5017C8D5CF4}" name="End Date" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{08241312-22D9-4BB9-B978-C5017C8D5CF4}" name="End Date" dataDxfId="19">
       <calculatedColumnFormula>WORKDAY.INTL(Data!$D2-1,Data!$E2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A62717C-5798-48E8-BDCE-09E2CB3DDA47}" name="Days completed" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{D1F8B858-8313-443C-8CDD-838CAF19E222}" name="Progress" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{0A62717C-5798-48E8-BDCE-09E2CB3DDA47}" name="Days completed" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{D1F8B858-8313-443C-8CDD-838CAF19E222}" name="Progress" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{39855587-6E68-4735-B2D6-526DF389284D}" name="Budget" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{B6C5CA90-6146-420F-A2C9-41235E5E11A1}" name="Actual" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{39855587-6E68-4735-B2D6-526DF389284D}" name="Budget" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{B6C5CA90-6146-420F-A2C9-41235E5E11A1}" name="Actual" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7989,10 +7741,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9405,10 +9154,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9525,7 +9271,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9537,7 +9283,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15">
         <f>MIN(D7:D46) + Working!H10</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9568,15 +9314,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.88671875" customWidth="1"/>
@@ -9589,14 +9333,54 @@
     <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F2" s="14" t="str">
+    <row r="1" spans="1:36" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="str">
         <f>TEXT(MIN(D7:D46),"D-MMMM-YY")&amp; " to " &amp;TEXT(MAX(E7:E46),"D-MMMM-YY")</f>
         <v>17-February-20 to 13-March-20</v>
       </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
     </row>
-    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:36" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:36" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -9663,82 +9447,82 @@
       </c>
       <c r="K7" s="13" cm="1">
         <f t="array" ref="K7:AJ7">_xlfn.SEQUENCE(1,26,MIN(D7:D460)+Working!H10,1)</f>
-        <v>43878</v>
+        <v>43887</v>
       </c>
       <c r="L7" s="13">
-        <v>43879</v>
+        <v>43888</v>
       </c>
       <c r="M7" s="13">
-        <v>43880</v>
+        <v>43889</v>
       </c>
       <c r="N7" s="13">
-        <v>43881</v>
+        <v>43890</v>
       </c>
       <c r="O7" s="13">
-        <v>43882</v>
+        <v>43891</v>
       </c>
       <c r="P7" s="13">
-        <v>43883</v>
+        <v>43892</v>
       </c>
       <c r="Q7" s="13">
-        <v>43884</v>
+        <v>43893</v>
       </c>
       <c r="R7" s="13">
-        <v>43885</v>
+        <v>43894</v>
       </c>
       <c r="S7" s="13">
-        <v>43886</v>
+        <v>43895</v>
       </c>
       <c r="T7" s="13">
-        <v>43887</v>
+        <v>43896</v>
       </c>
       <c r="U7" s="13">
-        <v>43888</v>
+        <v>43897</v>
       </c>
       <c r="V7" s="13">
-        <v>43889</v>
+        <v>43898</v>
       </c>
       <c r="W7" s="13">
-        <v>43890</v>
+        <v>43899</v>
       </c>
       <c r="X7" s="13">
-        <v>43891</v>
+        <v>43900</v>
       </c>
       <c r="Y7" s="13">
-        <v>43892</v>
+        <v>43901</v>
       </c>
       <c r="Z7" s="13">
-        <v>43893</v>
+        <v>43902</v>
       </c>
       <c r="AA7" s="13">
-        <v>43894</v>
+        <v>43903</v>
       </c>
       <c r="AB7" s="13">
-        <v>43895</v>
+        <v>43904</v>
       </c>
       <c r="AC7" s="13">
-        <v>43896</v>
+        <v>43905</v>
       </c>
       <c r="AD7" s="13">
-        <v>43897</v>
+        <v>43906</v>
       </c>
       <c r="AE7" s="13">
-        <v>43898</v>
+        <v>43907</v>
       </c>
       <c r="AF7" s="13">
-        <v>43899</v>
+        <v>43908</v>
       </c>
       <c r="AG7" s="13">
-        <v>43900</v>
+        <v>43909</v>
       </c>
       <c r="AH7" s="13">
-        <v>43901</v>
+        <v>43910</v>
       </c>
       <c r="AI7" s="13">
-        <v>43902</v>
+        <v>43911</v>
       </c>
       <c r="AJ7" s="13">
-        <v>43903</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -10943,19 +10727,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:AJ47">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>AND(WEEKDAY(K$7,2)&gt;5,$B7&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(K$7&gt;=$D7,WORKDAY.INTL($D7,$G7,1)-1&gt;=K$7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>AND(WEEKDAY(K$7,2)&gt;5,$B7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:AI47 L8:AJ8">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND(K$7&gt;=WORKDAY.INTL($D7,$G7,1),$H7=0,K$7&lt;=$E7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(K$7&gt;=WORKDAY.INTL($D7,$G7,1),$H7&lt;&gt;1,K$7&lt;=$E7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>AND(K$7&gt;=WORKDAY.INTL($D7,$G7,1),$H7=0,K$7&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:AI51">
@@ -10977,15 +10761,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>388620</xdr:colOff>
+                    <xdr:colOff>472440</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>586740</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:colOff>693420</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>464820</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
